--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-encounter.xlsx
@@ -354,7 +354,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -366,7 +366,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -412,7 +412,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -538,7 +538,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>「Encounter（診察、受診、入退院など）の現状。」(Deai no genjou.)</t>
+    <t>「Encounter（診察、受診、入退院など）の現状。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
@@ -945,7 +945,7 @@
     <t>患者以外に関与する人</t>
   </si>
   <si>
-    <t>「患者以外にEncounter（診察、受診、入退院など）に関わった人々。」(Kanja igai ni deai ni kakawatta hitobito.)</t>
+    <t>「患者以外にEncounter（診察、受診、入退院など）に関わった人々。」</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1197,7 +1197,7 @@
     <t>事前入院識別子 (Jizen nyugaku shikibetsushi)</t>
   </si>
   <si>
-    <t>「入院前の識別子」(Nyūgaku mae no shikibetsu-shi)</t>
+    <t>「入院前の識別子」</t>
   </si>
   <si>
     <t>PV1-5</t>
@@ -1210,7 +1210,7 @@
 </t>
   </si>
   <si>
-    <t>「入院前に患者がいた場所／組織」(nyūin zen ni kanja ga ita basho / soshiki)</t>
+    <t>「入院前に患者がいた場所／組織」</t>
   </si>
   <si>
     <t>患者が入院する前に、どこの場所/組織から来たか。</t>
